--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rln3-Rxfp3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rln3-Rxfp3.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.008444</v>
+        <v>0.1107593333333333</v>
       </c>
       <c r="N2">
-        <v>0.025332</v>
+        <v>0.332278</v>
       </c>
       <c r="O2">
-        <v>0.01130451274613711</v>
+        <v>0.1221364674089439</v>
       </c>
       <c r="P2">
-        <v>0.01130451274613711</v>
+        <v>0.1221364674089439</v>
       </c>
       <c r="Q2">
-        <v>0.005954759464</v>
+        <v>0.07810814642266667</v>
       </c>
       <c r="R2">
-        <v>0.053592835176</v>
+        <v>0.7029733178040001</v>
       </c>
       <c r="S2">
-        <v>0.01130451274613711</v>
+        <v>0.1221364674089439</v>
       </c>
       <c r="T2">
-        <v>0.01130451274613711</v>
+        <v>0.1221364674089439</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>1.355689</v>
       </c>
       <c r="O3">
-        <v>0.6049819824845205</v>
+        <v>0.4983148609452437</v>
       </c>
       <c r="P3">
-        <v>0.6049819824845205</v>
+        <v>0.4983148609452437</v>
       </c>
       <c r="Q3">
         <v>0.3186800056446666</v>
@@ -632,10 +632,10 @@
         <v>2.868120050802</v>
       </c>
       <c r="S3">
-        <v>0.6049819824845205</v>
+        <v>0.4983148609452437</v>
       </c>
       <c r="T3">
-        <v>0.6049819824845205</v>
+        <v>0.4983148609452437</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.286618</v>
+        <v>0.3441933333333333</v>
       </c>
       <c r="N4">
-        <v>0.859854</v>
+        <v>1.03258</v>
       </c>
       <c r="O4">
-        <v>0.3837135047693424</v>
+        <v>0.3795486716458124</v>
       </c>
       <c r="P4">
-        <v>0.3837135047693424</v>
+        <v>0.3795486716458124</v>
       </c>
       <c r="Q4">
-        <v>0.202124733308</v>
+        <v>0.2427272038266666</v>
       </c>
       <c r="R4">
-        <v>1.819122599772</v>
+        <v>2.18454483444</v>
       </c>
       <c r="S4">
-        <v>0.3837135047693424</v>
+        <v>0.3795486716458124</v>
       </c>
       <c r="T4">
-        <v>0.3837135047693424</v>
+        <v>0.3795486716458124</v>
       </c>
     </row>
   </sheetData>
